--- a/statystyki.xlsx
+++ b/statystyki.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dawid\Studia\Magisterskie\Semestr_01\Wielowymiarowa analiza danych\Projekt\Palacze_WAD\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C69577-AF52-4A99-8CEF-CAB82947AE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -121,11 +115,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,33 +168,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2007–2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -241,7 +223,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2007–2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -275,7 +257,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -310,10 +291,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2007–2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -486,16 +466,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,628 +499,628 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>17.671875</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>18.55</v>
       </c>
-      <c r="D2" s="2">
-        <v>29.932409274193549</v>
-      </c>
-      <c r="E2" s="2">
-        <v>-0.22899791674672129</v>
-      </c>
-      <c r="F2" s="2">
-        <v>-0.19021522588955261</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5.4710519348835973</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.30959091408713552</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>29.93240927419355</v>
+      </c>
+      <c r="E2">
+        <v>-0.2289979167467213</v>
+      </c>
+      <c r="F2">
+        <v>-0.1902152258895526</v>
+      </c>
+      <c r="G2">
+        <v>5.471051934883597</v>
+      </c>
+      <c r="H2">
+        <v>0.3095909140871355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
-        <v>11.371874999999999</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3">
+        <v>11.371875</v>
+      </c>
+      <c r="C3">
         <v>11.95</v>
       </c>
-      <c r="D3" s="2">
-        <v>7.8820866935483878</v>
-      </c>
-      <c r="E3" s="2">
-        <v>-0.49253330424298669</v>
-      </c>
-      <c r="F3" s="2">
-        <v>-0.56445359107349424</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2.8075054218199451</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="D3">
+        <v>7.882086693548388</v>
+      </c>
+      <c r="E3">
+        <v>-0.4925333042429867</v>
+      </c>
+      <c r="F3">
+        <v>-0.5644535910734942</v>
+      </c>
+      <c r="G3">
+        <v>2.807505421819945</v>
+      </c>
+      <c r="H3">
         <v>0.2468814880413252</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
-        <v>6.3218750000000004</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4">
+        <v>6.321875</v>
+      </c>
+      <c r="C4">
         <v>5.4</v>
       </c>
-      <c r="D4" s="2">
-        <v>13.426280241935491</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.73708086329147049</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1.0603561051992301</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3.6641888927749728</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.57960476801185934</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>13.42628024193549</v>
+      </c>
+      <c r="E4">
+        <v>0.7370808632914705</v>
+      </c>
+      <c r="F4">
+        <v>1.06035610519923</v>
+      </c>
+      <c r="G4">
+        <v>3.664188892774973</v>
+      </c>
+      <c r="H4">
+        <v>0.5796047680118593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>15.615625</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>17.25</v>
       </c>
-      <c r="D5" s="2">
-        <v>43.083941532258073</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.51016675321991123</v>
-      </c>
-      <c r="F5" s="2">
-        <v>-0.71471292483779481</v>
-      </c>
-      <c r="G5" s="2">
-        <v>6.5638358855366006</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.42033769929391879</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>43.08394153225807</v>
+      </c>
+      <c r="E5">
+        <v>0.5101667532199112</v>
+      </c>
+      <c r="F5">
+        <v>-0.7147129248377948</v>
+      </c>
+      <c r="G5">
+        <v>6.563835885536601</v>
+      </c>
+      <c r="H5">
+        <v>0.4203376992939188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>16.015625</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>17.7</v>
       </c>
-      <c r="D6" s="2">
-        <v>44.263941532258073</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.65451281258412308</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-0.70644374720939418</v>
-      </c>
-      <c r="G6" s="2">
-        <v>6.6531151750332764</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="D6">
+        <v>44.26394153225807</v>
+      </c>
+      <c r="E6">
+        <v>0.6545128125841231</v>
+      </c>
+      <c r="F6">
+        <v>-0.7064437472093942</v>
+      </c>
+      <c r="G6">
+        <v>6.653115175033276</v>
+      </c>
+      <c r="H6">
         <v>0.4154140206850046</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2">
-        <v>16.162500000000001</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7">
+        <v>16.1625</v>
+      </c>
+      <c r="C7">
         <v>18.05</v>
       </c>
-      <c r="D7" s="2">
-        <v>44.280483870967743</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.51329861382457231</v>
-      </c>
-      <c r="F7" s="2">
-        <v>-0.76816196865027753</v>
-      </c>
-      <c r="G7" s="2">
-        <v>6.6543582613928853</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.41171590171030997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>44.28048387096774</v>
+      </c>
+      <c r="E7">
+        <v>0.5132986138245723</v>
+      </c>
+      <c r="F7">
+        <v>-0.7681619686502775</v>
+      </c>
+      <c r="G7">
+        <v>6.654358261392885</v>
+      </c>
+      <c r="H7">
+        <v>0.41171590171031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>22.078125</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>22.65</v>
       </c>
-      <c r="D8" s="2">
-        <v>67.885635080645173</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8">
+        <v>67.88563508064517</v>
+      </c>
+      <c r="E8">
         <v>-0.1672895195407911</v>
       </c>
-      <c r="F8" s="2">
-        <v>0.13805327026476491</v>
-      </c>
-      <c r="G8" s="2">
-        <v>8.2392739413521845</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.37318721319641879</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <v>0.1380532702647649</v>
+      </c>
+      <c r="G8">
+        <v>8.239273941352184</v>
+      </c>
+      <c r="H8">
+        <v>0.3731872131964188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>13.665625</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>13.85</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>18.59458669354839</v>
       </c>
-      <c r="E9" s="2">
-        <v>-9.1691306407499784E-2</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.20139032086304781</v>
-      </c>
-      <c r="G9" s="2">
-        <v>4.3121440947107033</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.31554678945973591</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>-0.09169130640749978</v>
+      </c>
+      <c r="F9">
+        <v>0.2013903208630478</v>
+      </c>
+      <c r="G9">
+        <v>4.312144094710703</v>
+      </c>
+      <c r="H9">
+        <v>0.3155467894597359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>11.35</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>10.75</v>
       </c>
-      <c r="D10" s="2">
-        <v>22.092903225806449</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.46766960703873067</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.22207320272538189</v>
-      </c>
-      <c r="G10" s="2">
-        <v>4.7003088436619196</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.41412412719488279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>22.09290322580645</v>
+      </c>
+      <c r="E10">
+        <v>0.4676696070387307</v>
+      </c>
+      <c r="F10">
+        <v>0.2220732027253819</v>
+      </c>
+      <c r="G10">
+        <v>4.70030884366192</v>
+      </c>
+      <c r="H10">
+        <v>0.4141241271948828</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>12.68125</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>13.2</v>
       </c>
-      <c r="D11" s="2">
-        <v>20.306088709677422</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.20961640505629389</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="D11">
+        <v>20.30608870967742</v>
+      </c>
+      <c r="E11">
+        <v>0.2096164050562939</v>
+      </c>
+      <c r="F11">
         <v>-0.5425759602951008</v>
       </c>
-      <c r="G11" s="2">
-        <v>4.5062277693961974</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.35534570877446597</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G11">
+        <v>4.506227769396197</v>
+      </c>
+      <c r="H11">
+        <v>0.355345708774466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>15.571875</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>16.8</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>28.75369959677419</v>
       </c>
-      <c r="E12" s="2">
-        <v>-6.6082709719024191E-2</v>
-      </c>
-      <c r="F12" s="2">
-        <v>-0.78527751599795581</v>
-      </c>
-      <c r="G12" s="2">
-        <v>5.3622476254621239</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="E12">
+        <v>-0.06608270971902419</v>
+      </c>
+      <c r="F12">
+        <v>-0.7852775159979558</v>
+      </c>
+      <c r="G12">
+        <v>5.362247625462124</v>
+      </c>
+      <c r="H12">
         <v>0.344354653852675</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="2">
-        <v>20.353124999999999</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13">
+        <v>20.353125</v>
+      </c>
+      <c r="C13">
         <v>21.8</v>
       </c>
-      <c r="D13" s="2">
-        <v>44.075473790322583</v>
-      </c>
-      <c r="E13" s="2">
-        <v>-0.18977532526315949</v>
-      </c>
-      <c r="F13" s="2">
-        <v>-0.26826138936856309</v>
-      </c>
-      <c r="G13" s="2">
-        <v>6.6389361941746801</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.32618756059203102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <v>44.07547379032258</v>
+      </c>
+      <c r="E13">
+        <v>-0.1897753252631595</v>
+      </c>
+      <c r="F13">
+        <v>-0.2682613893685631</v>
+      </c>
+      <c r="G13">
+        <v>6.63893619417468</v>
+      </c>
+      <c r="H13">
+        <v>0.326187560592031</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="2">
-        <v>16.384374999999999</v>
-      </c>
-      <c r="C14" s="2">
-        <v>17.350000000000001</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="B14">
+        <v>16.384375</v>
+      </c>
+      <c r="C14">
+        <v>17.35</v>
+      </c>
+      <c r="D14">
         <v>32.49297379032258</v>
       </c>
-      <c r="E14" s="2">
-        <v>0.26873084603900699</v>
-      </c>
-      <c r="F14" s="2">
-        <v>-0.62406768847638994</v>
-      </c>
-      <c r="G14" s="2">
-        <v>5.7002608528314367</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.34790834882816318</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>0.268730846039007</v>
+      </c>
+      <c r="F14">
+        <v>-0.6240676884763899</v>
+      </c>
+      <c r="G14">
+        <v>5.700260852831437</v>
+      </c>
+      <c r="H14">
+        <v>0.3479083488281632</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="2">
-        <v>18.212499999999999</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15">
+        <v>18.2125</v>
+      </c>
+      <c r="C15">
         <v>19.3</v>
       </c>
-      <c r="D15" s="2">
-        <v>31.784354838709682</v>
-      </c>
-      <c r="E15" s="2">
-        <v>-0.17868825718308121</v>
-      </c>
-      <c r="F15" s="2">
-        <v>-0.16199810997198091</v>
-      </c>
-      <c r="G15" s="2">
-        <v>5.6377615095629654</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.30955450979069132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>31.78435483870968</v>
+      </c>
+      <c r="E15">
+        <v>-0.1786882571830812</v>
+      </c>
+      <c r="F15">
+        <v>-0.1619981099719809</v>
+      </c>
+      <c r="G15">
+        <v>5.637761509562965</v>
+      </c>
+      <c r="H15">
+        <v>0.3095545097906913</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="2">
-        <v>18.440625000000001</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16">
+        <v>18.440625</v>
+      </c>
+      <c r="C16">
         <v>19.45</v>
       </c>
-      <c r="D16" s="2">
-        <v>41.019909274193552</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.22961500693776141</v>
-      </c>
-      <c r="F16" s="2">
-        <v>-0.71599717613123404</v>
-      </c>
-      <c r="G16" s="2">
-        <v>6.4046787018704956</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.34731353746798149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <v>41.01990927419355</v>
+      </c>
+      <c r="E16">
+        <v>0.2296150069377614</v>
+      </c>
+      <c r="F16">
+        <v>-0.715997176131234</v>
+      </c>
+      <c r="G16">
+        <v>6.404678701870496</v>
+      </c>
+      <c r="H16">
+        <v>0.3473135374679815</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>20.609375</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>22.15</v>
       </c>
-      <c r="D17" s="2">
-        <v>52.613135080645158</v>
-      </c>
-      <c r="E17" s="2">
-        <v>-0.19191442198136019</v>
-      </c>
-      <c r="F17" s="2">
-        <v>-0.77033824990469413</v>
-      </c>
-      <c r="G17" s="2">
-        <v>7.2534912339262636</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0.35195105304873459</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>52.61313508064516</v>
+      </c>
+      <c r="E17">
+        <v>-0.1919144219813602</v>
+      </c>
+      <c r="F17">
+        <v>-0.7703382499046941</v>
+      </c>
+      <c r="G17">
+        <v>7.253491233926264</v>
+      </c>
+      <c r="H17">
+        <v>0.3519510530487346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="2">
-        <v>21.256250000000001</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18">
+        <v>21.25625</v>
+      </c>
+      <c r="C18">
         <v>23.2</v>
       </c>
-      <c r="D18" s="2">
-        <v>57.930927419354838</v>
-      </c>
-      <c r="E18" s="2">
-        <v>-0.39797005983112399</v>
-      </c>
-      <c r="F18" s="2">
-        <v>-0.60044258757847058</v>
-      </c>
-      <c r="G18" s="2">
-        <v>7.6112369178310848</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0.35807054009202388</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>57.93092741935484</v>
+      </c>
+      <c r="E18">
+        <v>-0.397970059831124</v>
+      </c>
+      <c r="F18">
+        <v>-0.6004425875784706</v>
+      </c>
+      <c r="G18">
+        <v>7.611236917831085</v>
+      </c>
+      <c r="H18">
+        <v>0.3580705400920239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="2">
-        <v>22.418749999999999</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B19">
+        <v>22.41875</v>
+      </c>
+      <c r="C19">
         <v>23.7</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
         <v>61.65705645161291</v>
       </c>
-      <c r="E19" s="2">
-        <v>0.17924853235574689</v>
-      </c>
-      <c r="F19" s="2">
-        <v>7.7851767732822694E-2</v>
-      </c>
-      <c r="G19" s="2">
-        <v>7.8522007393859274</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.35025149659931648</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>0.1792485323557469</v>
+      </c>
+      <c r="F19">
+        <v>0.07785176773282269</v>
+      </c>
+      <c r="G19">
+        <v>7.852200739385927</v>
+      </c>
+      <c r="H19">
+        <v>0.3502514965993165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>22.46875</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>22.6</v>
       </c>
-      <c r="D20" s="2">
-        <v>59.203508064516143</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.39960916310514788</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.17441564728187059</v>
-      </c>
-      <c r="G20" s="2">
-        <v>7.6943815907788284</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0.34244813755900211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>59.20350806451614</v>
+      </c>
+      <c r="E20">
+        <v>0.3996091631051479</v>
+      </c>
+      <c r="F20">
+        <v>0.1744156472818706</v>
+      </c>
+      <c r="G20">
+        <v>7.694381590778828</v>
+      </c>
+      <c r="H20">
+        <v>0.3424481375590021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>21.75</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>22.55</v>
       </c>
-      <c r="D21" s="2">
-        <v>47.489032258064512</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1.8791582133588669E-2</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.10142226674683941</v>
-      </c>
-      <c r="G21" s="2">
-        <v>6.8912286464798509</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0.31683809868872881</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <v>47.48903225806451</v>
+      </c>
+      <c r="E21">
+        <v>0.01879158213358867</v>
+      </c>
+      <c r="F21">
+        <v>0.1014222667468394</v>
+      </c>
+      <c r="G21">
+        <v>6.891228646479851</v>
+      </c>
+      <c r="H21">
+        <v>0.3168380986887288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="2">
-        <v>20.978124999999999</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B22">
+        <v>20.978125</v>
+      </c>
+      <c r="C22">
         <v>21.45</v>
       </c>
-      <c r="D22" s="2">
-        <v>39.974667338709672</v>
-      </c>
-      <c r="E22" s="2">
-        <v>-0.35681288700958241</v>
-      </c>
-      <c r="F22" s="2">
-        <v>6.719207943528302E-2</v>
-      </c>
-      <c r="G22" s="2">
-        <v>6.3225522804251826</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0.30138786380695048</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <v>39.97466733870967</v>
+      </c>
+      <c r="E22">
+        <v>-0.3568128870095824</v>
+      </c>
+      <c r="F22">
+        <v>0.06719207943528302</v>
+      </c>
+      <c r="G22">
+        <v>6.322552280425183</v>
+      </c>
+      <c r="H22">
+        <v>0.3013878638069505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>12.18125</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>12.2</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23">
         <v>14.05447580645161</v>
       </c>
-      <c r="E23" s="2">
-        <v>-0.55166136365435881</v>
-      </c>
-      <c r="F23" s="2">
-        <v>5.096366590378533E-2</v>
-      </c>
-      <c r="G23" s="2">
-        <v>3.7489299548606678</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0.30776233595572439</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>-0.5516613636543588</v>
+      </c>
+      <c r="F23">
+        <v>0.05096366590378533</v>
+      </c>
+      <c r="G23">
+        <v>3.748929954860668</v>
+      </c>
+      <c r="H23">
+        <v>0.3077623359557244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>8.75</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <v>8.75</v>
       </c>
-      <c r="D24" s="2">
-        <v>6.6529032258064511</v>
-      </c>
-      <c r="E24" s="2">
-        <v>-4.9514545345221714E-3</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0.11080544470816441</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="D24">
+        <v>6.652903225806451</v>
+      </c>
+      <c r="E24">
+        <v>-0.004951454534522171</v>
+      </c>
+      <c r="F24">
+        <v>0.1108054447081644</v>
+      </c>
+      <c r="G24">
         <v>2.579322241560067</v>
       </c>
-      <c r="H24" s="2">
-        <v>0.29477968474972199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H24">
+        <v>0.294779684749722</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="2">
-        <v>4.3937499999999998</v>
-      </c>
-      <c r="C25" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D25" s="2">
-        <v>2.0980241935483872</v>
-      </c>
-      <c r="E25" s="2">
-        <v>-0.62341441852159463</v>
-      </c>
-      <c r="F25" s="2">
-        <v>-7.1135251148955483E-2</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1.4484557962010389</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0.32966277011687961</v>
+      <c r="B25">
+        <v>4.39375</v>
+      </c>
+      <c r="C25">
+        <v>4.4</v>
+      </c>
+      <c r="D25">
+        <v>2.098024193548387</v>
+      </c>
+      <c r="E25">
+        <v>-0.6234144185215946</v>
+      </c>
+      <c r="F25">
+        <v>-0.07113525114895548</v>
+      </c>
+      <c r="G25">
+        <v>1.448455796201039</v>
+      </c>
+      <c r="H25">
+        <v>0.3296627701168796</v>
       </c>
     </row>
   </sheetData>
